--- a/SCH & STH/sch_sth_3_kato_katz.xlsx
+++ b/SCH & STH/sch_sth_3_kato_katz.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbandubad\Repositories\generic-espen-collect-form\SCH &amp; STH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\generic-espen-collect-form\SCH &amp; STH\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3411E3FA-398D-4E7E-961B-0F008A622252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980" tabRatio="500"/>
+    <workbookView xWindow="7200" yWindow="3135" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -148,9 +149,6 @@
     <t>3. SCH/STH - Kato Katz</t>
   </si>
   <si>
-    <t>k_subdistrict</t>
-  </si>
-  <si>
     <t>Select the sub-district</t>
   </si>
   <si>
@@ -163,24 +161,12 @@
     <t>3 digits code assigned to you</t>
   </si>
   <si>
-    <t>k_IDType</t>
-  </si>
-  <si>
     <t>Does a bar code need to be scanned on the diagnostic test?</t>
   </si>
   <si>
-    <t>k_BarcodeID</t>
-  </si>
-  <si>
     <t>Scan barcode now</t>
   </si>
   <si>
-    <t>k_GenerateID</t>
-  </si>
-  <si>
-    <t>k_GenerateID2</t>
-  </si>
-  <si>
     <t>Re-enter the unique ID</t>
   </si>
   <si>
@@ -337,15 +323,6 @@
     <t>k_RecorderID</t>
   </si>
   <si>
-    <t>${k_IDType} = 'Scanner'</t>
-  </si>
-  <si>
-    <t>${k_IDType} != 'Scanner'</t>
-  </si>
-  <si>
-    <t>. = ${k_GenerateID}</t>
-  </si>
-  <si>
     <t>The repeated code must be the same</t>
   </si>
   <si>
@@ -365,13 +342,37 @@
   </si>
   <si>
     <t>Entrer l'identifiant unique du test de diagnostique (Doit avoir le format 123-123456. Chiffres avec des tiret seulement)</t>
+  </si>
+  <si>
+    <t>k_district</t>
+  </si>
+  <si>
+    <t>k_id_type</t>
+  </si>
+  <si>
+    <t>${k_id_type} = 'Scanner'</t>
+  </si>
+  <si>
+    <t>${k_id_type} != 'Scanner'</t>
+  </si>
+  <si>
+    <t>k_generate_id</t>
+  </si>
+  <si>
+    <t>k_generate_id2</t>
+  </si>
+  <si>
+    <t>. = ${k_generate_id}</t>
+  </si>
+  <si>
+    <t>k_barcode_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -421,6 +422,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -475,7 +483,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -565,6 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -853,14 +862,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -934,7 +943,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>18</v>
@@ -970,11 +979,11 @@
       <c r="A3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
@@ -998,16 +1007,16 @@
         <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="15"/>
@@ -1015,10 +1024,10 @@
         <v>35</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="13"/>
@@ -1030,17 +1039,17 @@
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="15"/>
@@ -1057,17 +1066,17 @@
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="13"/>
@@ -1075,7 +1084,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="19"/>
       <c r="K6" s="8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="8" t="s">
@@ -1089,28 +1098,28 @@
         <v>24</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
       <c r="H7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="8" t="s">
@@ -1124,28 +1133,28 @@
         <v>24</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8" t="s">
@@ -1159,16 +1168,16 @@
         <v>22</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="15"/>
@@ -1188,16 +1197,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="10"/>
@@ -1217,16 +1226,16 @@
         <v>22</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="10"/>
@@ -1246,16 +1255,16 @@
         <v>22</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="10"/>
@@ -1275,16 +1284,16 @@
         <v>22</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="10"/>
@@ -1304,16 +1313,16 @@
         <v>22</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="10"/>
@@ -1333,16 +1342,16 @@
         <v>22</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="10"/>
@@ -1362,16 +1371,16 @@
         <v>22</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="10"/>
@@ -1391,16 +1400,16 @@
         <v>24</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="5"/>
@@ -1420,16 +1429,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="5"/>
@@ -1449,16 +1458,16 @@
         <v>24</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="5"/>
@@ -1478,16 +1487,16 @@
         <v>22</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="5"/>
@@ -1507,16 +1516,16 @@
         <v>25</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="5"/>
@@ -1534,7 +1543,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>33</v>
@@ -1559,7 +1568,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>33</v>
@@ -1586,12 +1595,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD16"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1618,34 +1627,34 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A14:C59">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:C59">
     <sortCondition ref="B14:B59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1654,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/SCH & STH/sch_sth_3_kato_katz.xlsx
+++ b/SCH & STH/sch_sth_3_kato_katz.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="123">
   <si>
     <t>form_title</t>
   </si>
@@ -238,18 +238,9 @@
     <t>Other (name)</t>
   </si>
   <si>
-    <t>k_other_quantity_1</t>
-  </si>
-  <si>
-    <t>Other Quantity</t>
-  </si>
-  <si>
     <t>k_other_name_2</t>
   </si>
   <si>
-    <t>k_other_quantity_2</t>
-  </si>
-  <si>
     <t>k_remarks</t>
   </si>
   <si>
@@ -301,9 +292,6 @@
     <t>Autre (nom)</t>
   </si>
   <si>
-    <t>Autre quantité</t>
-  </si>
-  <si>
     <t>Notes additionnelles</t>
   </si>
   <si>
@@ -365,6 +353,51 @@
   </si>
   <si>
     <t>Entrer l'identifiant unique du test de diagnostique (Doit avoir le format 123-123456. Chiffres avec des tiret seulement)</t>
+  </si>
+  <si>
+    <t>k_other_quantity_1sa</t>
+  </si>
+  <si>
+    <t>k_other_quantity_1sb</t>
+  </si>
+  <si>
+    <t>k_other_quantity_2sa</t>
+  </si>
+  <si>
+    <t>k_other_quantity_2sb</t>
+  </si>
+  <si>
+    <t>Other Quantity – Slide A</t>
+  </si>
+  <si>
+    <t>Other Quantity – Slide B</t>
+  </si>
+  <si>
+    <t>Other 2 (name)</t>
+  </si>
+  <si>
+    <t>Other 2 Quantity – Slide A</t>
+  </si>
+  <si>
+    <t>Other 2 Quantity – Slide B</t>
+  </si>
+  <si>
+    <t>Autre quantité - Slide A</t>
+  </si>
+  <si>
+    <t>Autre quantité - Slide B</t>
+  </si>
+  <si>
+    <t>Autre 2 (nom)</t>
+  </si>
+  <si>
+    <t>Autre 2 quantité - Slide A</t>
+  </si>
+  <si>
+    <t>Autre 2 quantité - Slide B</t>
+  </si>
+  <si>
+    <t>Code à 3 chiffres qui vous est attribué</t>
   </si>
 </sst>
 </file>
@@ -854,13 +887,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -934,7 +967,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>18</v>
@@ -1007,18 +1040,20 @@
         <v>43</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="G4" s="15"/>
       <c r="H4" s="8" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="13"/>
@@ -1030,7 +1065,7 @@
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>44</v>
@@ -1040,7 +1075,7 @@
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="15"/>
@@ -1057,7 +1092,7 @@
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>46</v>
@@ -1067,7 +1102,7 @@
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="13"/>
@@ -1075,7 +1110,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="19"/>
       <c r="K6" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="8" t="s">
@@ -1092,25 +1127,25 @@
         <v>48</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
       <c r="H7" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="8" t="s">
@@ -1131,21 +1166,21 @@
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8" t="s">
@@ -1168,7 +1203,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="15"/>
@@ -1197,7 +1232,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="10"/>
@@ -1226,7 +1261,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="10"/>
@@ -1255,7 +1290,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="10"/>
@@ -1284,7 +1319,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="10"/>
@@ -1313,7 +1348,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="10"/>
@@ -1342,7 +1377,7 @@
         <v>33</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="10"/>
@@ -1371,7 +1406,7 @@
         <v>33</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="10"/>
@@ -1400,7 +1435,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="5"/>
@@ -1420,16 +1455,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="5"/>
@@ -1446,19 +1481,19 @@
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="5"/>
@@ -1475,19 +1510,19 @@
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="5"/>
@@ -1502,21 +1537,21 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>25</v>
+    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="5"/>
@@ -1525,24 +1560,28 @@
       <c r="J21" s="7"/>
       <c r="K21" s="10"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="8"/>
+      <c r="M21" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>26</v>
+    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="30"/>
+      <c r="E22" s="30" t="s">
+        <v>121</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="5"/>
       <c r="H22" s="26"/>
@@ -1550,24 +1589,28 @@
       <c r="J22" s="7"/>
       <c r="K22" s="10"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="8"/>
+      <c r="M22" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>27</v>
+      <c r="A23" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="30" t="s">
+        <v>87</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="5"/>
       <c r="H23" s="26"/>
@@ -1578,6 +1621,56 @@
       <c r="M23" s="8"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1618,30 +1711,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
